--- a/data/trans_orig/P57_AC_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57_AC_R-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>290736</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>268886</v>
+        <v>269167</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>311666</v>
+        <v>311978</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5884586400948125</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5442322665665223</v>
+        <v>0.5448024261629635</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6308206149183071</v>
+        <v>0.6314535524294501</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>293</v>
@@ -765,19 +765,19 @@
         <v>285451</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>262411</v>
+        <v>265004</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>306217</v>
+        <v>304746</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6106054452840451</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5613193861111009</v>
+        <v>0.5668674186343607</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6550244071270676</v>
+        <v>0.6518786066605819</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>586</v>
@@ -786,19 +786,19 @@
         <v>576188</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>543169</v>
+        <v>547475</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>604904</v>
+        <v>608465</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5992260031912671</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5648876699780172</v>
+        <v>0.5693653230491343</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6290907454909471</v>
+        <v>0.6327940024189064</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>203328</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>182398</v>
+        <v>182086</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>225178</v>
+        <v>224897</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4115413599051875</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3691793850816927</v>
+        <v>0.3685464475705502</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4557677334334775</v>
+        <v>0.4551975738370366</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>196</v>
@@ -836,19 +836,19 @@
         <v>182038</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>161272</v>
+        <v>162743</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>205078</v>
+        <v>202485</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3893945547159548</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3449755928729324</v>
+        <v>0.348121393339418</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4386806138888992</v>
+        <v>0.4331325813656391</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>402</v>
@@ -857,19 +857,19 @@
         <v>385365</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>356649</v>
+        <v>353088</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>418384</v>
+        <v>414078</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4007739968087329</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3709092545090529</v>
+        <v>0.3672059975810936</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4351123300219828</v>
+        <v>0.4306346769508657</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>464149</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>436212</v>
+        <v>436420</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>492070</v>
+        <v>491436</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6310751876630634</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5930917859099419</v>
+        <v>0.5933733326331718</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6690377156865058</v>
+        <v>0.6681760296058432</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>386</v>
@@ -982,19 +982,19 @@
         <v>412451</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>389680</v>
+        <v>388900</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>437100</v>
+        <v>435591</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6606159735093735</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6241447121232582</v>
+        <v>0.6228949562897906</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7000953670728626</v>
+        <v>0.6976790514723784</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>831</v>
@@ -1003,19 +1003,19 @@
         <v>876600</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>840052</v>
+        <v>840209</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>912725</v>
+        <v>911455</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6446383240692749</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6177614383478006</v>
+        <v>0.6178769812733501</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6712038788788518</v>
+        <v>0.6702702289057449</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>271340</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>243419</v>
+        <v>244053</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>299277</v>
+        <v>299069</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3689248123369366</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3309622843134943</v>
+        <v>0.3318239703941571</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4069082140900582</v>
+        <v>0.4066266673668285</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>204</v>
@@ -1053,19 +1053,19 @@
         <v>211892</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>187243</v>
+        <v>188752</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>234663</v>
+        <v>235443</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3393840264906264</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2999046329271373</v>
+        <v>0.3023209485276214</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3758552878767418</v>
+        <v>0.3771050437102092</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>462</v>
@@ -1074,19 +1074,19 @@
         <v>483232</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>447107</v>
+        <v>448377</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>519780</v>
+        <v>519623</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3553616759307251</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3287961211211481</v>
+        <v>0.3297297710942552</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3822385616521994</v>
+        <v>0.38212301872665</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>438912</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>416331</v>
+        <v>412382</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>461157</v>
+        <v>461755</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6883993536408927</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6529834716141946</v>
+        <v>0.6467895649508064</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7232892577552121</v>
+        <v>0.7242265227278784</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>458</v>
@@ -1199,19 +1199,19 @@
         <v>482426</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>454763</v>
+        <v>459692</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>504569</v>
+        <v>506089</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7004229105426039</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6602590787666083</v>
+        <v>0.6674163878871918</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7325720497201291</v>
+        <v>0.7347782509204037</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>879</v>
@@ -1220,19 +1220,19 @@
         <v>921338</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>887914</v>
+        <v>887652</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>955031</v>
+        <v>954809</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6946431148508867</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6694434017189703</v>
+        <v>0.6692459382932592</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.720046032054072</v>
+        <v>0.7198786355767737</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>198671</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>176426</v>
+        <v>175828</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>221252</v>
+        <v>225201</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3116006463591074</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2767107422447883</v>
+        <v>0.2757734772721217</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3470165283858055</v>
+        <v>0.3532104350491936</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>199</v>
@@ -1270,19 +1270,19 @@
         <v>206338</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>184195</v>
+        <v>182675</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>234001</v>
+        <v>229072</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2995770894573961</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2674279502798708</v>
+        <v>0.2652217490795964</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3397409212333916</v>
+        <v>0.3325836121128084</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>390</v>
@@ -1291,19 +1291,19 @@
         <v>405009</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>371316</v>
+        <v>371538</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>438433</v>
+        <v>438695</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3053568851491133</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2799539679459279</v>
+        <v>0.2801213644232262</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3305565982810295</v>
+        <v>0.3307540617067408</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>367345</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>347174</v>
+        <v>345298</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>388941</v>
+        <v>387271</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.709711992157417</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6707411172255853</v>
+        <v>0.6671176075351704</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7514357763737397</v>
+        <v>0.7482089317933837</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>347</v>
@@ -1416,19 +1416,19 @@
         <v>360162</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>338737</v>
+        <v>340454</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>380035</v>
+        <v>381626</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6984731884972269</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6569221801120196</v>
+        <v>0.660252333783357</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7370123107419859</v>
+        <v>0.7400989466383379</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>692</v>
@@ -1437,19 +1437,19 @@
         <v>727507</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>698416</v>
+        <v>698838</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>758194</v>
+        <v>758390</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7041032230225078</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6759486396399028</v>
+        <v>0.6763568911487698</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7338028737681361</v>
+        <v>0.7339931500412765</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>150252</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>128656</v>
+        <v>130326</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>170423</v>
+        <v>172299</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.290288007842583</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2485642236262602</v>
+        <v>0.2517910682066164</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3292588827744147</v>
+        <v>0.3328823924648296</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>155</v>
@@ -1487,19 +1487,19 @@
         <v>155480</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>135607</v>
+        <v>134016</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>176905</v>
+        <v>175188</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3015268115027731</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2629876892580141</v>
+        <v>0.2599010533616621</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3430778198879805</v>
+        <v>0.339747666216643</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>293</v>
@@ -1508,19 +1508,19 @@
         <v>305732</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>275045</v>
+        <v>274849</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>334823</v>
+        <v>334401</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2958967769774922</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2661971262318639</v>
+        <v>0.2660068499587235</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3240513603600972</v>
+        <v>0.3236431088512302</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>272360</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>253010</v>
+        <v>253932</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>288572</v>
+        <v>288918</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.704300182918546</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6542633195069241</v>
+        <v>0.6566458646582397</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7462234463023316</v>
+        <v>0.7471181109176793</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>303</v>
@@ -1633,19 +1633,19 @@
         <v>309698</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>291791</v>
+        <v>292846</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>326656</v>
+        <v>327340</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7666065318584956</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7222811984504856</v>
+        <v>0.7248921581981098</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8085819822987257</v>
+        <v>0.8102755846246982</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>580</v>
@@ -1654,19 +1654,19 @@
         <v>582058</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>554170</v>
+        <v>556333</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>605872</v>
+        <v>604991</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7361340241451683</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7008632039644836</v>
+        <v>0.703598706020805</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7662509145119187</v>
+        <v>0.7651378513281821</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>114350</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>98138</v>
+        <v>97792</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>133700</v>
+        <v>132778</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.295699817081454</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2537765536976684</v>
+        <v>0.2528818890823207</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3457366804930759</v>
+        <v>0.3433541353417603</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>93</v>
@@ -1704,19 +1704,19 @@
         <v>94288</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>77330</v>
+        <v>76646</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>112195</v>
+        <v>111140</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2333934681415045</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1914180177012748</v>
+        <v>0.1897244153753019</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2777188015495146</v>
+        <v>0.2751078418018902</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>208</v>
@@ -1725,19 +1725,19 @@
         <v>208638</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>184824</v>
+        <v>185705</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>236526</v>
+        <v>234363</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2638659758548317</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2337490854880812</v>
+        <v>0.2348621486718179</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2991367960355162</v>
+        <v>0.2964012939791951</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>225996</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>210973</v>
+        <v>213050</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>238946</v>
+        <v>240356</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7724160701922088</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7210691825093273</v>
+        <v>0.7281698069615258</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8166760709097354</v>
+        <v>0.8214978362610252</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>286</v>
@@ -1850,19 +1850,19 @@
         <v>266254</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>251500</v>
+        <v>250594</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>279579</v>
+        <v>280109</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7763999769497572</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7333776778355787</v>
+        <v>0.7307366255083415</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8152553770986886</v>
+        <v>0.8168018264762509</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>520</v>
@@ -1871,19 +1871,19 @@
         <v>492250</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>471438</v>
+        <v>469945</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>511798</v>
+        <v>511096</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7745658428618907</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7418186934580497</v>
+        <v>0.7394693605160692</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8053246819931619</v>
+        <v>0.804220763694602</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>66587</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>53637</v>
+        <v>52227</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>81610</v>
+        <v>79533</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2275839298077912</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1833239290902646</v>
+        <v>0.178502163738975</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2789308174906727</v>
+        <v>0.2718301930384742</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>85</v>
@@ -1921,19 +1921,19 @@
         <v>76680</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>63355</v>
+        <v>62825</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>91434</v>
+        <v>92340</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2236000230502429</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1847446229013114</v>
+        <v>0.1831981735237491</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2666223221644211</v>
+        <v>0.2692633744916585</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>154</v>
@@ -1942,19 +1942,19 @@
         <v>143267</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>123719</v>
+        <v>124421</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>164079</v>
+        <v>165572</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2254341571381094</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1946753180068381</v>
+        <v>0.1957792363053977</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2581813065419503</v>
+        <v>0.2605306394839306</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>166369</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>154198</v>
+        <v>153595</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>176549</v>
+        <v>177141</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7926761845433308</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7346841567669665</v>
+        <v>0.7318122968795797</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8411801347275258</v>
+        <v>0.8440010336709087</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>236</v>
@@ -2067,19 +2067,19 @@
         <v>272268</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>257284</v>
+        <v>257179</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>285363</v>
+        <v>286461</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8153979041325805</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7705221417032527</v>
+        <v>0.7702078974953235</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8546170417631176</v>
+        <v>0.8579052790594031</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>411</v>
@@ -2088,19 +2088,19 @@
         <v>438637</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>418347</v>
+        <v>421880</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>456479</v>
+        <v>456971</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8066281693730868</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7693165907488236</v>
+        <v>0.7758125762674155</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8394387178067843</v>
+        <v>0.8403431772003241</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>43514</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>33334</v>
+        <v>32742</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>55685</v>
+        <v>56288</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2073238154566692</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1588198652724741</v>
+        <v>0.1559989663290912</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2653158432330335</v>
+        <v>0.2681877031204203</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>54</v>
@@ -2138,19 +2138,19 @@
         <v>61640</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>48545</v>
+        <v>47447</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>76624</v>
+        <v>76729</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1846020958674195</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1453829582368824</v>
+        <v>0.1420947209405969</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2294778582967473</v>
+        <v>0.2297921025046765</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>99</v>
@@ -2159,19 +2159,19 @@
         <v>105154</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>87312</v>
+        <v>86820</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>125444</v>
+        <v>121911</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1933718306269132</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1605612821932157</v>
+        <v>0.1596568227996759</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2306834092511764</v>
+        <v>0.2241874237325845</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>2225867</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2172647</v>
+        <v>2175890</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2285668</v>
+        <v>2281020</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.679880420602902</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6636245870597266</v>
+        <v>0.6646153448151532</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6981465982953924</v>
+        <v>0.6967266276633581</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2309</v>
@@ -2284,19 +2284,19 @@
         <v>2388711</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2336669</v>
+        <v>2342531</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2442515</v>
+        <v>2441673</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7073331137246123</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6919228404733847</v>
+        <v>0.6936585122537485</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7232654410224321</v>
+        <v>0.7230161348038332</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4499</v>
@@ -2305,19 +2305,19 @@
         <v>4614577</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4534588</v>
+        <v>4538822</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4687861</v>
+        <v>4692892</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6938196647783316</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6817929174416216</v>
+        <v>0.6824295620488862</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7048380959025032</v>
+        <v>0.7055946611859762</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>1048042</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>988241</v>
+        <v>992889</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1101262</v>
+        <v>1098019</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3201195793970981</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3018534017046076</v>
+        <v>0.3032733723366418</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3363754129402733</v>
+        <v>0.3353846551848466</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>986</v>
@@ -2355,19 +2355,19 @@
         <v>988355</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>934551</v>
+        <v>935393</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1040397</v>
+        <v>1034535</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2926668862753878</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2767345589775679</v>
+        <v>0.2769838651961669</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3080771595266153</v>
+        <v>0.3063414877462515</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2008</v>
@@ -2376,19 +2376,19 @@
         <v>2036398</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1963114</v>
+        <v>1958083</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2116387</v>
+        <v>2112153</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3061803352216684</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2951619040974974</v>
+        <v>0.2944053388140236</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3182070825583785</v>
+        <v>0.3175704379511138</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>257333</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>233562</v>
+        <v>236552</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>277861</v>
+        <v>277005</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5715885260156539</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5187877052671993</v>
+        <v>0.5254286984689616</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6171857280756952</v>
+        <v>0.6152843541605074</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>258</v>
@@ -2744,19 +2744,19 @@
         <v>266370</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>248477</v>
+        <v>247885</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>285488</v>
+        <v>287597</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.621971780763739</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5801921815917747</v>
+        <v>0.5788085317526134</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6666110816499415</v>
+        <v>0.6715361115662841</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>510</v>
@@ -2765,19 +2765,19 @@
         <v>523703</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>492215</v>
+        <v>494778</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>550200</v>
+        <v>553389</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5961509793576546</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5603074832969922</v>
+        <v>0.5632252476705595</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6263139544284534</v>
+        <v>0.629944409107927</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>192874</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>172346</v>
+        <v>173202</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>216645</v>
+        <v>213655</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.428411473984346</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3828142719243048</v>
+        <v>0.3847156458394926</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4812122947328005</v>
+        <v>0.4745713015310384</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>161</v>
@@ -2815,19 +2815,19 @@
         <v>161897</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>142779</v>
+        <v>140670</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>179790</v>
+        <v>180382</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.378028219236261</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3333889183500588</v>
+        <v>0.3284638884337158</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4198078184082255</v>
+        <v>0.4211914682473868</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>351</v>
@@ -2836,19 +2836,19 @@
         <v>354770</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>328273</v>
+        <v>325084</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>386258</v>
+        <v>383695</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4038490206423455</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3736860455715466</v>
+        <v>0.370055590892073</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4396925167030079</v>
+        <v>0.4367747523294403</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>429762</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>405621</v>
+        <v>403671</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>455398</v>
+        <v>454264</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.629553122002506</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5941891259877604</v>
+        <v>0.5913324776268386</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6671064336337921</v>
+        <v>0.6654454229167255</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>397</v>
@@ -2961,19 +2961,19 @@
         <v>424808</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>401879</v>
+        <v>402323</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>447577</v>
+        <v>447317</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6961154704456187</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6585435448651682</v>
+        <v>0.6592696486772514</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7334256289105219</v>
+        <v>0.7329999518921001</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>813</v>
@@ -2982,19 +2982,19 @@
         <v>854571</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>817623</v>
+        <v>819233</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>886310</v>
+        <v>884790</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6609708522029794</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6323937926701552</v>
+        <v>0.6336387612664637</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6855195472467216</v>
+        <v>0.6843439692457423</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>252884</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>227248</v>
+        <v>228382</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>277025</v>
+        <v>278975</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3704468779974939</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3328935663662079</v>
+        <v>0.3345545770832744</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4058108740122396</v>
+        <v>0.4086675223731614</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>174</v>
@@ -3032,19 +3032,19 @@
         <v>185447</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>162678</v>
+        <v>162938</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>208376</v>
+        <v>207932</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3038845295543813</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2665743710894779</v>
+        <v>0.2670000481078998</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3414564551348317</v>
+        <v>0.3407303513227487</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>421</v>
@@ -3053,19 +3053,19 @@
         <v>438331</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>406592</v>
+        <v>408112</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>475279</v>
+        <v>473669</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3390291477970206</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3144804527532785</v>
+        <v>0.3156560307542577</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3676062073298449</v>
+        <v>0.3663612387335364</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>465109</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>440464</v>
+        <v>439436</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>489074</v>
+        <v>488871</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6859649568068478</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6496167148645986</v>
+        <v>0.6481007533444688</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7213099378347196</v>
+        <v>0.7210107803304761</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>496</v>
@@ -3178,19 +3178,19 @@
         <v>525895</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>500835</v>
+        <v>497043</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>548641</v>
+        <v>546991</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7441022181995446</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7086442377733694</v>
+        <v>0.7032789187779098</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7762860160325978</v>
+        <v>0.7739513076726574</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>940</v>
@@ -3199,19 +3199,19 @@
         <v>991004</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>954455</v>
+        <v>956940</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1022223</v>
+        <v>1022029</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7156363489719889</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6892434290278037</v>
+        <v>0.6910375488718733</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7381810094096144</v>
+        <v>0.7380406781267972</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>212927</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>188962</v>
+        <v>189165</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>237572</v>
+        <v>238600</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3140350431931523</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2786900621652803</v>
+        <v>0.278989219669524</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3503832851354013</v>
+        <v>0.3518992466555312</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>167</v>
@@ -3249,19 +3249,19 @@
         <v>180856</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>158110</v>
+        <v>159760</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>205916</v>
+        <v>209708</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2558977818004554</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2237139839674021</v>
+        <v>0.2260486923273426</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2913557622266306</v>
+        <v>0.2967210812220902</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>370</v>
@@ -3270,19 +3270,19 @@
         <v>393783</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>362564</v>
+        <v>362758</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>430332</v>
+        <v>427847</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2843636510280111</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2618189905903857</v>
+        <v>0.2619593218732029</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3107565709721964</v>
+        <v>0.3089624511281267</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>419510</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>392487</v>
+        <v>396815</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>442346</v>
+        <v>446299</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6871358721639498</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6428747190167113</v>
+        <v>0.6499626251100231</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7245414105416713</v>
+        <v>0.7310153564271887</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>421</v>
@@ -3395,19 +3395,19 @@
         <v>483532</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>462507</v>
+        <v>458801</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>505956</v>
+        <v>503291</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7859465289794345</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.751772153426015</v>
+        <v>0.7457488479175901</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8223951197347098</v>
+        <v>0.8180637986425673</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>793</v>
@@ -3416,19 +3416,19 @@
         <v>903041</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>865576</v>
+        <v>872605</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>935997</v>
+        <v>934314</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7367307628126248</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7061655324486312</v>
+        <v>0.7119001118798522</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7636171305728355</v>
+        <v>0.7622445779110392</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>191009</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>168173</v>
+        <v>164220</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>218032</v>
+        <v>213704</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3128641278360502</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.275458589458329</v>
+        <v>0.2689846435728113</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3571252809832887</v>
+        <v>0.3500373748899769</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>117</v>
@@ -3466,19 +3466,19 @@
         <v>131690</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>109266</v>
+        <v>111931</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>152715</v>
+        <v>156421</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2140534710205655</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1776048802652903</v>
+        <v>0.1819362013574328</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.248227846573985</v>
+        <v>0.25425115208241</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>289</v>
@@ -3487,19 +3487,19 @@
         <v>322700</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>289744</v>
+        <v>291427</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>360165</v>
+        <v>353136</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2632692371873752</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2363828694271645</v>
+        <v>0.2377554220889609</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2938344675513688</v>
+        <v>0.2880998881201478</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>272683</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>250639</v>
+        <v>251869</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>293337</v>
+        <v>294796</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6413541730519062</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5895082354456348</v>
+        <v>0.5924006686293823</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6899328314399654</v>
+        <v>0.693364326388713</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>297</v>
@@ -3612,19 +3612,19 @@
         <v>328290</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>308988</v>
+        <v>307896</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>348724</v>
+        <v>347018</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7348230293192395</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6916188784850907</v>
+        <v>0.6891737882145348</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7805601697890177</v>
+        <v>0.7767427591382621</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>546</v>
@@ -3633,19 +3633,19 @@
         <v>600972</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>575886</v>
+        <v>570362</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>629896</v>
+        <v>629160</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6892459949113666</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6604745500965206</v>
+        <v>0.6541397976217788</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7224182801485614</v>
+        <v>0.7215743768449334</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>152484</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>131830</v>
+        <v>130371</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>174528</v>
+        <v>173298</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3586458269480937</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3100671685600345</v>
+        <v>0.3066356736112869</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4104917645543651</v>
+        <v>0.4075993313706174</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>108</v>
@@ -3683,19 +3683,19 @@
         <v>118471</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>98037</v>
+        <v>99743</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>137773</v>
+        <v>138865</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2651769706807605</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2194398302109822</v>
+        <v>0.2232572408617379</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3083811215149089</v>
+        <v>0.3108262117854654</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>248</v>
@@ -3704,19 +3704,19 @@
         <v>270955</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>242031</v>
+        <v>242767</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>296041</v>
+        <v>301565</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3107540050886334</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2775817198514388</v>
+        <v>0.2784256231550663</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3395254499034794</v>
+        <v>0.3458602023782213</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>225738</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>207076</v>
+        <v>209601</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>241120</v>
+        <v>241389</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.735781657942954</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6749543463197393</v>
+        <v>0.6831856337147598</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7859207801025042</v>
+        <v>0.7867972585404321</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>260</v>
@@ -3829,19 +3829,19 @@
         <v>266726</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>249446</v>
+        <v>250636</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>281602</v>
+        <v>280943</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7654718247066535</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7158812895690436</v>
+        <v>0.7192961351511296</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.808166202376316</v>
+        <v>0.8062748700628822</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>461</v>
@@ -3850,19 +3850,19 @@
         <v>492463</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>468715</v>
+        <v>469344</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>514921</v>
+        <v>514459</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7515702604171469</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.715328199550514</v>
+        <v>0.7162881010532978</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7858445273214389</v>
+        <v>0.7851397471709678</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>81062</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>65680</v>
+        <v>65411</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>99724</v>
+        <v>97199</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.264218342057046</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2140792198974957</v>
+        <v>0.2132027414595678</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3250456536802607</v>
+        <v>0.31681436628524</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>80</v>
@@ -3900,19 +3900,19 @@
         <v>81720</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>66844</v>
+        <v>67503</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>99000</v>
+        <v>97810</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2345281752933464</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1918337976236839</v>
+        <v>0.1937251299371175</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2841187104309567</v>
+        <v>0.2807038648488703</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>158</v>
@@ -3921,19 +3921,19 @@
         <v>162782</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>140324</v>
+        <v>140786</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>186530</v>
+        <v>185901</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2484297395828531</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2141554726785613</v>
+        <v>0.2148602528290322</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2846718004494864</v>
+        <v>0.2837118989467022</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>185242</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>169798</v>
+        <v>170744</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>198137</v>
+        <v>198067</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7541766980575405</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6912997947617815</v>
+        <v>0.6951487500504069</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8066732603980077</v>
+        <v>0.8063911729229688</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>266</v>
@@ -4046,19 +4046,19 @@
         <v>294757</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>276373</v>
+        <v>275949</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>312116</v>
+        <v>309999</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7705433479813164</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7224865364707949</v>
+        <v>0.7213777969418165</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8159245847284806</v>
+        <v>0.8103899573614826</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>430</v>
@@ -4067,19 +4067,19 @@
         <v>479999</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>455032</v>
+        <v>456833</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>499721</v>
+        <v>501067</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.764143616069881</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7243967900513567</v>
+        <v>0.7272638910571139</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7955396190548056</v>
+        <v>0.7976827455814238</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>60380</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>47485</v>
+        <v>47555</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>75824</v>
+        <v>74878</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2458233019424595</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1933267396019923</v>
+        <v>0.1936088270770311</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3087002052382184</v>
+        <v>0.3048512499495931</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>78</v>
@@ -4117,19 +4117,19 @@
         <v>87774</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>70415</v>
+        <v>72532</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>106158</v>
+        <v>106582</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2294566520186836</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1840754152715191</v>
+        <v>0.1896100426385173</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2775134635292051</v>
+        <v>0.2786222030581834</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>132</v>
@@ -4138,19 +4138,19 @@
         <v>148154</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>128432</v>
+        <v>127086</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>173121</v>
+        <v>171320</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.235856383930119</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2044603809451944</v>
+        <v>0.2023172544185763</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2756032099486435</v>
+        <v>0.2727361089428862</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>2255376</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2198882</v>
+        <v>2200250</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2312698</v>
+        <v>2313797</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6635417280835282</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6469209314217675</v>
+        <v>0.6473233637953443</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6804059993119072</v>
+        <v>0.6807293653718098</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2395</v>
@@ -4263,19 +4263,19 @@
         <v>2590376</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2537691</v>
+        <v>2534895</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2647232</v>
+        <v>2644422</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7321103844907102</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7172201763719905</v>
+        <v>0.716429973258249</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7481793879751446</v>
+        <v>0.7473851490669549</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4493</v>
@@ -4284,19 +4284,19 @@
         <v>4845753</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4764780</v>
+        <v>4764479</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4927343</v>
+        <v>4922122</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6985141656119588</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6868419813374518</v>
+        <v>0.6867985059817573</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7102753815724352</v>
+        <v>0.7095227480948914</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>1143621</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1086299</v>
+        <v>1085200</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1200115</v>
+        <v>1198747</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3364582719164718</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3195940006880926</v>
+        <v>0.3192706346281901</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3530790685782323</v>
+        <v>0.3526766362046555</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>885</v>
@@ -4334,19 +4334,19 @@
         <v>947856</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>891000</v>
+        <v>893810</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1000541</v>
+        <v>1003337</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2678896155092897</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2518206120248553</v>
+        <v>0.2526148509330451</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2827798236280095</v>
+        <v>0.283570026741751</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1969</v>
@@ -4355,19 +4355,19 @@
         <v>2091476</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2009886</v>
+        <v>2015107</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2172449</v>
+        <v>2172750</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3014858343880412</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2897246184275649</v>
+        <v>0.2904772519051086</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3131580186625481</v>
+        <v>0.3132014940182427</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>314281</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>294214</v>
+        <v>296551</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>331270</v>
+        <v>330756</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7492450195645344</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7014053772010115</v>
+        <v>0.7069787232093484</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7897481288421417</v>
+        <v>0.7885235489075245</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>300</v>
@@ -4723,19 +4723,19 @@
         <v>295280</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>278122</v>
+        <v>276909</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>311625</v>
+        <v>311581</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7479350072363314</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7044758172234387</v>
+        <v>0.7014039706715294</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7893376156768671</v>
+        <v>0.7892267815493865</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>594</v>
@@ -4744,19 +4744,19 @@
         <v>609560</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>583126</v>
+        <v>585353</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>633069</v>
+        <v>633190</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7486098587177086</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7161462847664816</v>
+        <v>0.7188805598405746</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7774810898173087</v>
+        <v>0.7776304281871101</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>105182</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>88193</v>
+        <v>88707</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>125249</v>
+        <v>122912</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2507549804354656</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2102518711578583</v>
+        <v>0.2114764510924755</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2985946227989888</v>
+        <v>0.2930212767906519</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>103</v>
@@ -4794,19 +4794,19 @@
         <v>99513</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>83168</v>
+        <v>83212</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>116671</v>
+        <v>117884</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2520649927636686</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2106623843231329</v>
+        <v>0.2107732184506135</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2955241827765613</v>
+        <v>0.2985960293284706</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>202</v>
@@ -4815,19 +4815,19 @@
         <v>204696</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>181187</v>
+        <v>181066</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>231130</v>
+        <v>228903</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2513901412822914</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2225189101826914</v>
+        <v>0.2223695718128898</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2838537152335183</v>
+        <v>0.2811194401594254</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>449260</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>428590</v>
+        <v>429562</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>469264</v>
+        <v>469143</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7727760157325642</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7372227072474895</v>
+        <v>0.7388942053229299</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8071867233634609</v>
+        <v>0.8069769906945141</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>451</v>
@@ -4940,19 +4940,19 @@
         <v>438919</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>416020</v>
+        <v>417386</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>458333</v>
+        <v>456626</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7835473766001121</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7426685532523531</v>
+        <v>0.7451065461217544</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8182052625059384</v>
+        <v>0.8151579291704221</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>881</v>
@@ -4961,19 +4961,19 @@
         <v>888178</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>858173</v>
+        <v>859752</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>913734</v>
+        <v>914420</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7780617238224344</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7517765005432692</v>
+        <v>0.7531599444556103</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8004491788654048</v>
+        <v>0.8010499647758713</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>132098</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>112094</v>
+        <v>112215</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>152768</v>
+        <v>151796</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2272239842674358</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1928132766365391</v>
+        <v>0.1930230093054863</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2627772927525105</v>
+        <v>0.261105794677071</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>125</v>
@@ -5011,19 +5011,19 @@
         <v>121250</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>101836</v>
+        <v>103543</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>144149</v>
+        <v>142783</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2164526233998879</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1817947374940617</v>
+        <v>0.1848420708295779</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2573314467476469</v>
+        <v>0.2548934538782455</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>255</v>
@@ -5032,19 +5032,19 @@
         <v>253349</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>227793</v>
+        <v>227107</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>283354</v>
+        <v>281775</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2219382761775656</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1995508211345952</v>
+        <v>0.1989500352241287</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2482234994567311</v>
+        <v>0.2468400555443898</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>521621</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>499224</v>
+        <v>499483</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>543666</v>
+        <v>542473</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7805994951727306</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7470822433470328</v>
+        <v>0.7474698881727261</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8135896202323849</v>
+        <v>0.8118052388604569</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>527</v>
@@ -5157,19 +5157,19 @@
         <v>524163</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>502672</v>
+        <v>503137</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>542477</v>
+        <v>542585</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7971460641963927</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7644635540789947</v>
+        <v>0.765169978418575</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8249991262745204</v>
+        <v>0.8251628706509654</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1026</v>
@@ -5178,19 +5178,19 @@
         <v>1045783</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1011071</v>
+        <v>1016515</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1073695</v>
+        <v>1075401</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.788806117348552</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7626233416810733</v>
+        <v>0.766729402236711</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8098587978398055</v>
+        <v>0.8111457744412817</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>146610</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>124565</v>
+        <v>125758</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>169007</v>
+        <v>168748</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2194005048272694</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1864103797676151</v>
+        <v>0.1881947611395432</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2529177566529672</v>
+        <v>0.2525301118272739</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>134</v>
@@ -5228,19 +5228,19 @@
         <v>133386</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>115072</v>
+        <v>114964</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>154877</v>
+        <v>154412</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2028539358036073</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1750008737254796</v>
+        <v>0.1748371293490346</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2355364459210054</v>
+        <v>0.2348300215814249</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>272</v>
@@ -5249,19 +5249,19 @@
         <v>279997</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>252085</v>
+        <v>250379</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>314709</v>
+        <v>309265</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.211193882651448</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1901412021601945</v>
+        <v>0.1888542255587184</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2373766583189268</v>
+        <v>0.233270597763289</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>519977</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>496109</v>
+        <v>498050</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>539801</v>
+        <v>538653</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8102973353420336</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7731028226397051</v>
+        <v>0.7761274444585545</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8411904486281464</v>
+        <v>0.8394015889628477</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>498</v>
@@ -5374,19 +5374,19 @@
         <v>538801</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>519265</v>
+        <v>515885</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>554721</v>
+        <v>555087</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8375603859994956</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8071916808403043</v>
+        <v>0.8019374253581132</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8623078605464861</v>
+        <v>0.8628772000290393</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>964</v>
@@ -5395,19 +5395,19 @@
         <v>1058778</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1030849</v>
+        <v>1029382</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1088066</v>
+        <v>1085316</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8239456888987744</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8022117557145388</v>
+        <v>0.8010698378302757</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8467382436446743</v>
+        <v>0.8445983402137863</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>121734</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>101910</v>
+        <v>103058</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>145602</v>
+        <v>143661</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1897026646579664</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1588095513718535</v>
+        <v>0.1605984110371524</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2268971773602949</v>
+        <v>0.2238725555414456</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>99</v>
@@ -5445,19 +5445,19 @@
         <v>104497</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>88577</v>
+        <v>88211</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>124033</v>
+        <v>127413</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1624396140005045</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1376921394535138</v>
+        <v>0.1371227999709608</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1928083191596956</v>
+        <v>0.1980625746418869</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>211</v>
@@ -5466,19 +5466,19 @@
         <v>226231</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>196943</v>
+        <v>199693</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>254160</v>
+        <v>255627</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1760543111012256</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1532617563553257</v>
+        <v>0.1554016597862139</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1977882442854612</v>
+        <v>0.1989301621697243</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>387572</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>368556</v>
+        <v>369465</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>405161</v>
+        <v>404978</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8128940868222154</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7730103292799698</v>
+        <v>0.7749181166082879</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.849786348378993</v>
+        <v>0.8494028545585681</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>360</v>
@@ -5591,19 +5591,19 @@
         <v>413055</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>395426</v>
+        <v>394893</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>429658</v>
+        <v>428967</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8390367921408297</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8032269714062724</v>
+        <v>0.8021441671157712</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8727624459988731</v>
+        <v>0.8713589781479288</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>703</v>
@@ -5612,19 +5612,19 @@
         <v>800627</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>774249</v>
+        <v>773006</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>823892</v>
+        <v>825313</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8261747407698157</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7989550884855068</v>
+        <v>0.7976720125204085</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8501825486867831</v>
+        <v>0.8516486245945619</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>89208</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>71619</v>
+        <v>71802</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>108224</v>
+        <v>107315</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1871059131777846</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.150213651621007</v>
+        <v>0.1505971454414321</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2269896707200303</v>
+        <v>0.2250818833917122</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>69</v>
@@ -5662,19 +5662,19 @@
         <v>79242</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>62639</v>
+        <v>63330</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>96871</v>
+        <v>97404</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1609632078591703</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1272375540011268</v>
+        <v>0.1286410218520711</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1967730285937276</v>
+        <v>0.1978558328842286</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>149</v>
@@ -5683,19 +5683,19 @@
         <v>168450</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>145185</v>
+        <v>143764</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>194828</v>
+        <v>196071</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1738252592301844</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.149817451313217</v>
+        <v>0.1483513754054381</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2010449115144932</v>
+        <v>0.2023279874795915</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>260885</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>243730</v>
+        <v>243333</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>274333</v>
+        <v>275303</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7828024769947191</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7313276838666325</v>
+        <v>0.7301351843463397</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8231528055931945</v>
+        <v>0.8260638895925204</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>310</v>
@@ -5808,19 +5808,19 @@
         <v>332404</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>318344</v>
+        <v>319307</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>343271</v>
+        <v>343338</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8871753006299004</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8496489879604199</v>
+        <v>0.8522192240727543</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9161788389521816</v>
+        <v>0.9163581173840012</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>566</v>
@@ -5829,19 +5829,19 @@
         <v>593290</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>570962</v>
+        <v>573400</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>613673</v>
+        <v>611774</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8380411774934967</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8065028403847154</v>
+        <v>0.8099465162252956</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8668339677930097</v>
+        <v>0.8641509337443417</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>72386</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>58938</v>
+        <v>57968</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>89541</v>
+        <v>89938</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2171975230052809</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.176847194406805</v>
+        <v>0.1739361104074794</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2686723161333675</v>
+        <v>0.2698648156536601</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>41</v>
@@ -5879,19 +5879,19 @@
         <v>42273</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>31406</v>
+        <v>31339</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>56333</v>
+        <v>55370</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1128246993700996</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08382116104781856</v>
+        <v>0.08364188261599895</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1503510120395803</v>
+        <v>0.1477807759272458</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>109</v>
@@ -5900,19 +5900,19 @@
         <v>114658</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>94275</v>
+        <v>96174</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>136986</v>
+        <v>134548</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1619588225065033</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1331660322069902</v>
+        <v>0.1358490662556581</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1934971596152844</v>
+        <v>0.1900534837747043</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>216073</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>204619</v>
+        <v>204861</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>226418</v>
+        <v>225660</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8435982284139968</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7988761827855463</v>
+        <v>0.7998237854395663</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8839849744824738</v>
+        <v>0.8810277616509772</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>262</v>
@@ -6025,19 +6025,19 @@
         <v>348585</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>332782</v>
+        <v>330300</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>362375</v>
+        <v>361281</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8738694173148558</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8342541238388843</v>
+        <v>0.8280323330383108</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9084410314297601</v>
+        <v>0.9056974386538822</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>515</v>
@@ -6046,19 +6046,19 @@
         <v>564658</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>544554</v>
+        <v>546556</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>581163</v>
+        <v>581890</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8620326386844052</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8313413879090298</v>
+        <v>0.8343967632753369</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8872304778801393</v>
+        <v>0.8883394354286235</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>40060</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>29715</v>
+        <v>30473</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>51514</v>
+        <v>51272</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1564017715860032</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1160150255175262</v>
+        <v>0.118972238349023</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2011238172144537</v>
+        <v>0.2001762145604337</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>38</v>
@@ -6096,19 +6096,19 @@
         <v>50313</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>36523</v>
+        <v>37617</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>66116</v>
+        <v>68598</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1261305826851442</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0915589685702399</v>
+        <v>0.09430256134611792</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1657458761611157</v>
+        <v>0.1719676669616892</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>86</v>
@@ -6117,19 +6117,19 @@
         <v>90373</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>73868</v>
+        <v>73141</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>110477</v>
+        <v>108475</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1379673613155948</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1127695221198607</v>
+        <v>0.1116605645713765</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1686586120909704</v>
+        <v>0.1656032367246624</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>2669669</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2623735</v>
+        <v>2620605</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2717302</v>
+        <v>2716788</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7905566615005207</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7769545681203515</v>
+        <v>0.7760277738373536</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8046621778443624</v>
+        <v>0.8045098409582538</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2708</v>
@@ -6242,19 +6242,19 @@
         <v>2891205</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2848089</v>
+        <v>2842740</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2939084</v>
+        <v>2938829</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8209733533669299</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8087303392100396</v>
+        <v>0.8072113083217991</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8345687847216432</v>
+        <v>0.8344963250272823</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5249</v>
@@ -6263,19 +6263,19 @@
         <v>5560875</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5496609</v>
+        <v>5494334</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5634443</v>
+        <v>5625713</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.8060840761063175</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7967682503774239</v>
+        <v>0.7964385587286492</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8167482276643768</v>
+        <v>0.8154826930405072</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>707279</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>659646</v>
+        <v>660160</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>753213</v>
+        <v>756343</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2094433384994793</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1953378221556376</v>
+        <v>0.1954901590417462</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2230454318796486</v>
+        <v>0.2239722261626465</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>609</v>
@@ -6313,19 +6313,19 @@
         <v>630475</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>582596</v>
+        <v>582851</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>673591</v>
+        <v>678940</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1790266466330701</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1654312152783572</v>
+        <v>0.1655036749727176</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1912696607899606</v>
+        <v>0.1927886916782008</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1284</v>
@@ -6334,19 +6334,19 @@
         <v>1337754</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1264186</v>
+        <v>1272916</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1402020</v>
+        <v>1404295</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1939159238936825</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1832517723356232</v>
+        <v>0.1845173069594932</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.203231749622576</v>
+        <v>0.2035614412713515</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>184144</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>154070</v>
+        <v>151001</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>217303</v>
+        <v>215328</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.4566080168883272</v>
+        <v>0.4566080168883274</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3820347255607053</v>
+        <v>0.3744249410381169</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5388293746835406</v>
+        <v>0.5339330194086851</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>97</v>
@@ -6702,19 +6702,19 @@
         <v>169050</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>144584</v>
+        <v>143932</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>195528</v>
+        <v>194054</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4767129888205174</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4077196906461034</v>
+        <v>0.405881048104113</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.551378305867768</v>
+        <v>0.5472231630334374</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>174</v>
@@ -6723,19 +6723,19 @@
         <v>353195</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>313295</v>
+        <v>313708</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>396473</v>
+        <v>394718</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4660149530295007</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4133705761290686</v>
+        <v>0.413915118648477</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5231179170491671</v>
+        <v>0.5208024398857058</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>219143</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>185984</v>
+        <v>187959</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>249217</v>
+        <v>252286</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5433919831116727</v>
+        <v>0.5433919831116729</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4611706253164592</v>
+        <v>0.4660669805913148</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6179652744392946</v>
+        <v>0.6255750589618828</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>105</v>
@@ -6773,19 +6773,19 @@
         <v>185566</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>159088</v>
+        <v>160562</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>210032</v>
+        <v>210684</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.5232870111794825</v>
+        <v>0.5232870111794826</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4486216941322319</v>
+        <v>0.4527768369665625</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5922803093538965</v>
+        <v>0.5941189518958868</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>198</v>
@@ -6794,19 +6794,19 @@
         <v>404709</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>361431</v>
+        <v>363186</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>444609</v>
+        <v>444196</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5339850469704993</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.476882082950833</v>
+        <v>0.4791975601142945</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5866294238709313</v>
+        <v>0.5860848813515229</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>287662</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>258109</v>
+        <v>255056</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>313714</v>
+        <v>311363</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.6050683848403346</v>
+        <v>0.6050683848403345</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5429069936997444</v>
+        <v>0.5364852238418448</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6598666925977456</v>
+        <v>0.6549221043032807</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>263</v>
@@ -6919,19 +6919,19 @@
         <v>278875</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>252440</v>
+        <v>256174</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>301267</v>
+        <v>301109</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5618639661132931</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5086046164548652</v>
+        <v>0.5161267968676523</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6069792929660626</v>
+        <v>0.606659938229163</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>450</v>
@@ -6940,19 +6940,19 @@
         <v>566537</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>530568</v>
+        <v>528459</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>602088</v>
+        <v>602573</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5830011504893351</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.545987118268134</v>
+        <v>0.5438167855978282</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6195849485265906</v>
+        <v>0.6200843393715002</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>187758</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>161706</v>
+        <v>164057</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>217311</v>
+        <v>220364</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3949316151596655</v>
+        <v>0.3949316151596654</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3401333074022546</v>
+        <v>0.3450778956967194</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4570930063002558</v>
+        <v>0.4635147761581551</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>193</v>
@@ -6990,19 +6990,19 @@
         <v>217464</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>195072</v>
+        <v>195230</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>243899</v>
+        <v>240165</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4381360338867069</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3930207070339376</v>
+        <v>0.3933400617708371</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4913953835451347</v>
+        <v>0.4838732031323477</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>307</v>
@@ -7011,19 +7011,19 @@
         <v>405223</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>369672</v>
+        <v>369187</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>441192</v>
+        <v>443301</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.4169988495106648</v>
+        <v>0.4169988495106647</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3804150514734095</v>
+        <v>0.3799156606285001</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4540128817318659</v>
+        <v>0.4561832144021716</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>384481</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>358850</v>
+        <v>358183</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>408492</v>
+        <v>412500</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6261066817874967</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5843672909115665</v>
+        <v>0.5832807391118217</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6652067796797196</v>
+        <v>0.6717334861646507</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>529</v>
@@ -7136,19 +7136,19 @@
         <v>382851</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>360602</v>
+        <v>363390</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>403220</v>
+        <v>402756</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.617646916412022</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5817529381980089</v>
+        <v>0.5862512979004467</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6505078309964479</v>
+        <v>0.6497587069345832</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>874</v>
@@ -7157,19 +7157,19 @@
         <v>767333</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>733143</v>
+        <v>732120</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>801860</v>
+        <v>797268</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.6218570178094392</v>
+        <v>0.6218570178094394</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5941490997810862</v>
+        <v>0.5933202516807287</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6498377651134204</v>
+        <v>0.646116930857509</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>229602</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>205591</v>
+        <v>201583</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>255233</v>
+        <v>255900</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3738933182125032</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3347932203202802</v>
+        <v>0.3282665138353492</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4156327090884335</v>
+        <v>0.4167192608881782</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>314</v>
@@ -7207,19 +7207,19 @@
         <v>237003</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>216634</v>
+        <v>217098</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>259252</v>
+        <v>256464</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3823530835879779</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3494921690035521</v>
+        <v>0.350241293065417</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4182470618019913</v>
+        <v>0.4137487020995532</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>510</v>
@@ -7228,19 +7228,19 @@
         <v>466605</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>432078</v>
+        <v>436670</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>500795</v>
+        <v>501818</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3781429821905606</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3501622348865794</v>
+        <v>0.3538830691424908</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4058509002189136</v>
+        <v>0.4066797483192712</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>427958</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>401288</v>
+        <v>401978</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>453739</v>
+        <v>454284</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.6188821275390205</v>
+        <v>0.6188821275390204</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.580314680250545</v>
+        <v>0.581311765518472</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6561646435127166</v>
+        <v>0.6569535833707608</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>727</v>
@@ -7353,19 +7353,19 @@
         <v>468337</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>447700</v>
+        <v>448126</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>488549</v>
+        <v>490389</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6438581122722017</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6154878512245062</v>
+        <v>0.6160735506014636</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.671646049369512</v>
+        <v>0.6741752167775386</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1138</v>
@@ -7374,19 +7374,19 @@
         <v>896294</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>860779</v>
+        <v>862170</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>926995</v>
+        <v>928469</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6316859951831516</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6066558592333329</v>
+        <v>0.6076361686521086</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6533233493219114</v>
+        <v>0.6543621563706856</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>263543</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>237762</v>
+        <v>237217</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>290213</v>
+        <v>289523</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3811178724609795</v>
+        <v>0.3811178724609794</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3438353564872834</v>
+        <v>0.3430464166292391</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4196853197494549</v>
+        <v>0.418688234481528</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>400</v>
@@ -7424,19 +7424,19 @@
         <v>259054</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>238842</v>
+        <v>237002</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>279691</v>
+        <v>279265</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3561418877277981</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3283539506304878</v>
+        <v>0.3258247832224613</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3845121487754931</v>
+        <v>0.3839264493985364</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>646</v>
@@ -7445,19 +7445,19 @@
         <v>522598</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>491897</v>
+        <v>490423</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>558113</v>
+        <v>556722</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3683140048168485</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3466766506780886</v>
+        <v>0.3456378436293143</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.393344140766667</v>
+        <v>0.3923638313478913</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>416267</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>391594</v>
+        <v>394755</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>437667</v>
+        <v>441361</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6860933153630883</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6454268021038423</v>
+        <v>0.6506364992906269</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7213642348050973</v>
+        <v>0.7274535271071959</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>711</v>
@@ -7570,19 +7570,19 @@
         <v>431082</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>414543</v>
+        <v>414458</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>447976</v>
+        <v>448923</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.7181593350277057</v>
+        <v>0.7181593350277056</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6906071664367855</v>
+        <v>0.6904656344318078</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7463045864077614</v>
+        <v>0.7478821851947656</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1168</v>
@@ -7591,19 +7591,19 @@
         <v>847350</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>820343</v>
+        <v>819480</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>875121</v>
+        <v>874835</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.7020404918663699</v>
+        <v>0.70204049186637</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6796651849431941</v>
+        <v>0.6789502334297161</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7250496659822991</v>
+        <v>0.7248125192918178</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>190454</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>169054</v>
+        <v>165360</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>215127</v>
+        <v>211966</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3139066846369119</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2786357651949029</v>
+        <v>0.2725464728928041</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3545731978961578</v>
+        <v>0.3493635007093732</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>277</v>
@@ -7641,19 +7641,19 @@
         <v>169177</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>152283</v>
+        <v>151336</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>185716</v>
+        <v>185801</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.2818406649722943</v>
+        <v>0.2818406649722942</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2536954135922386</v>
+        <v>0.2521178148052345</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3093928335632144</v>
+        <v>0.3095343655681921</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>480</v>
@@ -7662,19 +7662,19 @@
         <v>359631</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>331860</v>
+        <v>332146</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>386638</v>
+        <v>387501</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2979595081336301</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.274950334017701</v>
+        <v>0.2751874807081822</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3203348150568053</v>
+        <v>0.3210497665702838</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>267684</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>249639</v>
+        <v>252010</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>283038</v>
+        <v>283991</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6644597106138413</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6196656982085034</v>
+        <v>0.625551850597257</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7025709083284117</v>
+        <v>0.7049370690748132</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>527</v>
@@ -7787,19 +7787,19 @@
         <v>283330</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>268748</v>
+        <v>270273</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>297096</v>
+        <v>297388</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6599604695543758</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6259957162464219</v>
+        <v>0.6295473826568113</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6920269693935542</v>
+        <v>0.6927059893324564</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>903</v>
@@ -7808,19 +7808,19 @@
         <v>551014</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>528532</v>
+        <v>529589</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>570931</v>
+        <v>571248</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.6621385805918468</v>
+        <v>0.6621385805918467</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.635122783558743</v>
+        <v>0.6363931704721559</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6860720176825867</v>
+        <v>0.686453768500551</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>135176</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>119822</v>
+        <v>118869</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>153221</v>
+        <v>150850</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3355402893861587</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.297429091671588</v>
+        <v>0.2950629309251868</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3803343017914967</v>
+        <v>0.3744481494027428</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>281</v>
@@ -7858,19 +7858,19 @@
         <v>145983</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>132217</v>
+        <v>131925</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>160565</v>
+        <v>159040</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3400395304456241</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3079730306064457</v>
+        <v>0.3072940106675437</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3740042837535774</v>
+        <v>0.370452617343189</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>469</v>
@@ -7879,19 +7879,19 @@
         <v>281159</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>261242</v>
+        <v>260925</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>303641</v>
+        <v>302584</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3378614194081532</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3139279823174134</v>
+        <v>0.3135462314994493</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.364877216441257</v>
+        <v>0.3636068295278441</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>215448</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>202270</v>
+        <v>202408</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>229092</v>
+        <v>227759</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.7122638155154173</v>
+        <v>0.7122638155154174</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6686977317938813</v>
+        <v>0.6691556268858534</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7573719018537859</v>
+        <v>0.7529634497895414</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>644</v>
@@ -8004,19 +8004,19 @@
         <v>338410</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>325354</v>
+        <v>323126</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>352676</v>
+        <v>351876</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7445099110993504</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.715786691471157</v>
+        <v>0.7108863113101233</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7758967583511304</v>
+        <v>0.7741358257190971</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>969</v>
@@ -8025,19 +8025,19 @@
         <v>553858</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>534211</v>
+        <v>534674</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>572518</v>
+        <v>573454</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7316253712761022</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7056730352736862</v>
+        <v>0.7062844834106328</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7562743984786302</v>
+        <v>0.7575105810503032</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>87035</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>73391</v>
+        <v>74724</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>100213</v>
+        <v>100075</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2877361844845828</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2426280981462139</v>
+        <v>0.2470365502104586</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3313022682061187</v>
+        <v>0.3308443731141467</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>219</v>
@@ -8075,19 +8075,19 @@
         <v>116130</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>101864</v>
+        <v>102664</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>129186</v>
+        <v>131414</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2554900889006496</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2241032416488696</v>
+        <v>0.225864174280903</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.284213308528843</v>
+        <v>0.2891136886898767</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>341</v>
@@ -8096,19 +8096,19 @@
         <v>203166</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>184506</v>
+        <v>183570</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>222813</v>
+        <v>222350</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.2683746287238978</v>
+        <v>0.2683746287238979</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2437256015213699</v>
+        <v>0.2424894189496967</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2943269647263145</v>
+        <v>0.2937155165893673</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>2183645</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2122202</v>
+        <v>2120256</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2246648</v>
+        <v>2250320</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6245486735714438</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6069750660154467</v>
+        <v>0.6064186695381758</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6425681208613346</v>
+        <v>0.6436184362420539</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3498</v>
@@ -8221,19 +8221,19 @@
         <v>2351934</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2300136</v>
+        <v>2297788</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2400795</v>
+        <v>2406943</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6387110336007531</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6246444607625776</v>
+        <v>0.6240067219314426</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.651980102528775</v>
+        <v>0.6536498487553185</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5676</v>
@@ -8242,19 +8242,19 @@
         <v>4535579</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4451718</v>
+        <v>4450206</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4620242</v>
+        <v>4620630</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6318132847406458</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6201313511070952</v>
+        <v>0.6199207425535092</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6436070054781564</v>
+        <v>0.6436609666527274</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>1312712</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1249709</v>
+        <v>1246037</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1374155</v>
+        <v>1376101</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3754513264285562</v>
+        <v>0.3754513264285561</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3574318791386655</v>
+        <v>0.3563815637579459</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.393024933984553</v>
+        <v>0.393581330461824</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1789</v>
@@ -8292,19 +8292,19 @@
         <v>1330379</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1281518</v>
+        <v>1275370</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1382177</v>
+        <v>1384525</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3612889663992469</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3480198974712253</v>
+        <v>0.3463501512446814</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3753555392374225</v>
+        <v>0.3759932780685575</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2951</v>
@@ -8313,19 +8313,19 @@
         <v>2643091</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2558428</v>
+        <v>2558040</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2726952</v>
+        <v>2728464</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3681867152593543</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3563929945218431</v>
+        <v>0.3563390333472724</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3798686488929045</v>
+        <v>0.3800792574464908</v>
       </c>
     </row>
     <row r="27">
